--- a/Documents/915 -Group Number  1– Gantt chart Final Project planner.xlsx
+++ b/Documents/915 -Group Number  1– Gantt chart Final Project planner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29609"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24ED341FE4915A47/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ridh\Desktop\QC Classes\Fall 2025\CSCI 331 - Database Systems\Last Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52126BE0-FA8A-4B08-BB88-44C5B8567213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F620B965-1705-43A3-B8C7-576C8199164C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Project Planner</t>
   </si>
@@ -176,46 +176,46 @@
     <t>Relations Ships and Normalize to 3NF</t>
   </si>
   <si>
-    <t>Start modeling ERD diagram</t>
+    <t>Start modeling CDM diagram</t>
   </si>
   <si>
     <t>Finalize schemas and UDts</t>
   </si>
   <si>
-    <t xml:space="preserve">Create Tables ( Ridhwan Ibrahim) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Tables ( Giorgos Stefanis) </t>
-  </si>
-  <si>
-    <t>Create Tables (Michael Cipriani)</t>
-  </si>
-  <si>
-    <t>Create Tables( Youlun Wang)</t>
-  </si>
-  <si>
-    <t>Create Tables ( Seeram Govindan)</t>
-  </si>
-  <si>
-    <t>procedures to load tables ( Hasan Husseini)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">procedures to load tables ( Ridhwan Ibrahim) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">procedures to load tables ( Giorgos Stefanis) </t>
-  </si>
-  <si>
-    <t>procedures to load tables (Michael Cipriani)</t>
-  </si>
-  <si>
-    <t>procedures to load tables( Youlun Wang)</t>
-  </si>
-  <si>
-    <t>procedures to load tables ( Seeram Govindan)</t>
-  </si>
-  <si>
-    <t>Load all production tables</t>
+    <t xml:space="preserve">Clean data and Create Tables ( Ridhwan Ibrahim) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean data and Create Tables ( Giorgos Stefanis) </t>
+  </si>
+  <si>
+    <t>Clean data and Create Tables (Michael Cipriani)</t>
+  </si>
+  <si>
+    <t>Clean data and Create Tables( Youlun Wang)</t>
+  </si>
+  <si>
+    <t>Clean data and Create Tables ( Seeram Govindan)</t>
+  </si>
+  <si>
+    <t>stored procedures to load tables ( Hasan Husseini)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stored procedures to load tables ( Ridhwan Ibrahim) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stored procedures to load tables ( Giorgos Stefanis) </t>
+  </si>
+  <si>
+    <t>stored procedures to load tables (Michael Cipriani)</t>
+  </si>
+  <si>
+    <t>stored procedures to load tables( Youlun Wang)</t>
+  </si>
+  <si>
+    <t>stored procedures to load tables ( Seeram Govindan)</t>
+  </si>
+  <si>
+    <t>Load all production tables (Ridhwan)</t>
   </si>
   <si>
     <t>Create Propostions and queries ( Everyone)</t>
@@ -1045,16 +1045,16 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO24"/>
+  <dimension ref="B1:BO23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="32.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="49.375" style="2" customWidth="1"/>
     <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
     <col min="8" max="27" width="2.75" style="1"/>
@@ -1432,7 +1432,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" s="8">
         <v>1</v>
@@ -1452,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
@@ -1472,7 +1472,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G10" s="8">
         <v>1</v>
@@ -1492,7 +1492,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G11" s="8">
         <v>1</v>
@@ -1512,7 +1512,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
@@ -1532,7 +1532,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G13" s="8">
         <v>1</v>
@@ -1552,7 +1552,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G14" s="8">
         <v>1</v>
@@ -1572,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G15" s="8">
         <v>1</v>
@@ -1592,7 +1592,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
@@ -1632,7 +1632,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18" s="8">
         <v>1</v>
@@ -1660,19 +1660,19 @@
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1">
       <c r="B20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="23">
+        <v>30</v>
+      </c>
+      <c r="C20" s="21">
         <v>46005</v>
       </c>
-      <c r="D20" s="22">
-        <v>3</v>
+      <c r="D20" s="7">
+        <v>2</v>
       </c>
       <c r="E20" s="7">
+        <v>6</v>
+      </c>
+      <c r="F20" s="7">
         <v>5</v>
-      </c>
-      <c r="F20" s="7">
-        <v>3</v>
       </c>
       <c r="G20" s="8">
         <v>1</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1">
       <c r="B21" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="21">
         <v>46005</v>
@@ -1689,18 +1689,18 @@
         <v>2</v>
       </c>
       <c r="E21" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1">
-      <c r="B22" s="6" t="s">
-        <v>31</v>
+      <c r="B22" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C22" s="21">
         <v>46005</v>
@@ -1709,7 +1709,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" s="7">
         <v>6</v>
@@ -1719,27 +1719,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="21">
-        <v>46005</v>
-      </c>
-      <c r="D23" s="7">
-        <v>2</v>
-      </c>
-      <c r="E23" s="7">
-        <v>5</v>
-      </c>
-      <c r="F23" s="7">
-        <v>6</v>
-      </c>
-      <c r="G23" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1">
-      <c r="C24" s="24"/>
+      <c r="C23" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1756,7 +1736,7 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C3:C4"/>
   </mergeCells>
-  <conditionalFormatting sqref="B24:BO24">
+  <conditionalFormatting sqref="B23:BO23">
     <cfRule type="expression" dxfId="9" priority="2">
       <formula>TRUE</formula>
     </cfRule>
@@ -1766,7 +1746,7 @@
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BO23">
+  <conditionalFormatting sqref="H5:BO22">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
